--- a/Beam_Property_Tool/Profiles_S235_Eurocode_3.xlsx
+++ b/Beam_Property_Tool/Profiles_S235_Eurocode_3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HEB_Profiles_S235_Eurocode_3" sheetId="1" r:id="rId1"/>
@@ -60,111 +60,39 @@
     <t>Profile</t>
   </si>
   <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>h </t>
-  </si>
-  <si>
     <t>[mm]</t>
   </si>
   <si>
-    <t>Width</t>
-  </si>
-  <si>
     <t>b </t>
   </si>
   <si>
-    <t>Web thickness</t>
-  </si>
-  <si>
-    <t>Flange thickness</t>
-  </si>
-  <si>
-    <t>Root radius</t>
-  </si>
-  <si>
     <t>r </t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>m </t>
   </si>
   <si>
     <t>[kg/m]</t>
   </si>
   <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
     <t>P </t>
   </si>
   <si>
     <t>[m]</t>
   </si>
   <si>
-    <t>Area </t>
-  </si>
-  <si>
     <t>A </t>
   </si>
   <si>
-    <t>Shear area z-z </t>
-  </si>
-  <si>
     <t>(for η=1.2)</t>
   </si>
   <si>
-    <t>Shear area y-y </t>
-  </si>
-  <si>
-    <t>Second moment of area </t>
-  </si>
-  <si>
-    <t>Radius of gyration</t>
-  </si>
-  <si>
-    <t>Elastic section modulus </t>
-  </si>
-  <si>
-    <t>Plastic section modulus </t>
-  </si>
-  <si>
-    <t>Torsion constant </t>
-  </si>
-  <si>
-    <t>Torsion modulus </t>
-  </si>
-  <si>
-    <t>Warping constant </t>
-  </si>
-  <si>
-    <t>Warping modulus </t>
-  </si>
-  <si>
-    <t>Design plastic axial force resistance</t>
-  </si>
-  <si>
     <t>[kN]</t>
   </si>
   <si>
-    <t>Design plastic shear force resistance z-z </t>
-  </si>
-  <si>
-    <t>Design plastic shear force resistance y-y </t>
-  </si>
-  <si>
-    <t>Design elastic bending moment resistance</t>
-  </si>
-  <si>
     <t>[kNm]</t>
   </si>
   <si>
-    <t>Design plastic bending moment resistance</t>
-  </si>
-  <si>
     <t>Buckling about major axis y-y</t>
   </si>
   <si>
@@ -400,14 +328,107 @@
   </si>
   <si>
     <t>IPE600</t>
+  </si>
+  <si>
+    <t>h  [mm]</t>
+  </si>
+  <si>
+    <t>Depth [mm]</t>
+  </si>
+  <si>
+    <t>Width [mm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web thickness </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[mm]</t>
+    </r>
+  </si>
+  <si>
+    <t>Flange thickness [mm]</t>
+  </si>
+  <si>
+    <t>Root radius [mm]</t>
+  </si>
+  <si>
+    <t>Weight [kg/m]</t>
+  </si>
+  <si>
+    <t>Perimeter [m]</t>
+  </si>
+  <si>
+    <t>Area [mm2]</t>
+  </si>
+  <si>
+    <t>Shear area z-z  [mm2]</t>
+  </si>
+  <si>
+    <t>Shear area y-y [mm2]</t>
+  </si>
+  <si>
+    <t>Second moment of area [mm4]</t>
+  </si>
+  <si>
+    <t>Radius of gyration [mm]</t>
+  </si>
+  <si>
+    <t>Elastic section modulus [mm3]</t>
+  </si>
+  <si>
+    <t>Plastic section modulus [mm3]</t>
+  </si>
+  <si>
+    <t>Design plastic shear force resistance z-z  [kN]</t>
+  </si>
+  <si>
+    <t>Design plastic shear force resistance y-y [kN]</t>
+  </si>
+  <si>
+    <t>Design elastic bending moment resistance [kNm]</t>
+  </si>
+  <si>
+    <t>Design plastic bending moment resistance [kNm]</t>
+  </si>
+  <si>
+    <t>Torsion constant [mm3]</t>
+  </si>
+  <si>
+    <t>Torsion modulus [mm3]</t>
+  </si>
+  <si>
+    <t>Warping constant [mm4]</t>
+  </si>
+  <si>
+    <t>Warping modulus [mm3]</t>
+  </si>
+  <si>
+    <t>Design plastic axial force resistance [kN]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -719,14 +740,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -766,294 +787,294 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" t="s">
+        <v>121</v>
+      </c>
+      <c r="V2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AG2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" t="s">
+      <c r="AA3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="AB3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" t="s">
-        <v>99</v>
-      </c>
-      <c r="X3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>105</v>
-      </c>
       <c r="AD3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="T4" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -1143,10 +1164,10 @@
         <v>12.08</v>
       </c>
       <c r="AE6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -1160,7 +1181,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>120</v>
@@ -1250,10 +1271,10 @@
         <v>19.03</v>
       </c>
       <c r="AE7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -1267,7 +1288,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>140</v>
@@ -1357,10 +1378,10 @@
         <v>28.15</v>
       </c>
       <c r="AE8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -1374,7 +1395,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>160</v>
@@ -1464,10 +1485,10 @@
         <v>39.94</v>
       </c>
       <c r="AE9" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -1481,7 +1502,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>180</v>
@@ -1571,10 +1592,10 @@
         <v>54.29</v>
       </c>
       <c r="AE10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF10" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -1588,7 +1609,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -1678,10 +1699,10 @@
         <v>71.87</v>
       </c>
       <c r="AE11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG11">
         <v>1</v>
@@ -1695,7 +1716,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>220</v>
@@ -1785,10 +1806,10 @@
         <v>92.56</v>
       </c>
       <c r="AE12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG12">
         <v>1</v>
@@ -1802,7 +1823,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>240</v>
@@ -1892,10 +1913,10 @@
         <v>117.13</v>
       </c>
       <c r="AE13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG13">
         <v>1</v>
@@ -1909,7 +1930,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>260</v>
@@ -1999,10 +2020,10 @@
         <v>141.53</v>
       </c>
       <c r="AE14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF14" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG14">
         <v>1</v>
@@ -2016,7 +2037,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>280</v>
@@ -2106,10 +2127,10 @@
         <v>168.63</v>
       </c>
       <c r="AE15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG15">
         <v>1</v>
@@ -2123,7 +2144,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -2213,10 +2234,10 @@
         <v>204.48</v>
       </c>
       <c r="AE16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG16">
         <v>1</v>
@@ -2230,7 +2251,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>320</v>
@@ -2320,10 +2341,10 @@
         <v>220.69</v>
       </c>
       <c r="AE17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG17">
         <v>1</v>
@@ -2337,7 +2358,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>340</v>
@@ -2427,10 +2448,10 @@
         <v>231.64</v>
       </c>
       <c r="AE18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG18">
         <v>1</v>
@@ -2444,7 +2465,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>360</v>
@@ -2534,10 +2555,10 @@
         <v>242.64</v>
       </c>
       <c r="AE19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG19">
         <v>1</v>
@@ -2551,7 +2572,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>400</v>
@@ -2641,10 +2662,10 @@
         <v>259.45</v>
       </c>
       <c r="AE20" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF20" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG20">
         <v>1</v>
@@ -2658,7 +2679,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>450</v>
@@ -2748,10 +2769,10 @@
         <v>281.45</v>
       </c>
       <c r="AE21" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF21" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG21">
         <v>1</v>
@@ -2765,7 +2786,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>500</v>
@@ -2855,10 +2876,10 @@
         <v>303.54000000000002</v>
       </c>
       <c r="AE22" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG22">
         <v>1</v>
@@ -2872,7 +2893,7 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>550</v>
@@ -2962,10 +2983,10 @@
         <v>315.17</v>
       </c>
       <c r="AE23" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF23" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG23">
         <v>1</v>
@@ -2979,7 +3000,7 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>600</v>
@@ -3069,10 +3090,10 @@
         <v>326.89999999999998</v>
       </c>
       <c r="AE24" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG24">
         <v>1</v>
@@ -3086,7 +3107,7 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>650</v>
@@ -3176,10 +3197,10 @@
         <v>338.73</v>
       </c>
       <c r="AE25" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG25">
         <v>1</v>
@@ -3193,7 +3214,7 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>700</v>
@@ -3283,10 +3304,10 @@
         <v>351.34</v>
       </c>
       <c r="AE26" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF26" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG26">
         <v>1</v>
@@ -3300,7 +3321,7 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>800</v>
@@ -3390,10 +3411,10 @@
         <v>364.99</v>
       </c>
       <c r="AE27" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF27" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG27">
         <v>1</v>
@@ -3407,7 +3428,7 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>900</v>
@@ -3497,10 +3518,10 @@
         <v>389.71</v>
       </c>
       <c r="AE28" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF28" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG28">
         <v>1</v>
@@ -3514,7 +3535,7 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>1000</v>
@@ -3604,10 +3625,10 @@
         <v>403.32</v>
       </c>
       <c r="AE29" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF29" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3620,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,294 +3684,294 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" t="s">
+        <v>121</v>
+      </c>
+      <c r="V2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AG2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" t="s">
+      <c r="AA3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="AB3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" t="s">
-        <v>99</v>
-      </c>
-      <c r="X3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>105</v>
-      </c>
       <c r="AD3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="T4" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>80</v>
@@ -4040,10 +4061,10 @@
         <v>1.37</v>
       </c>
       <c r="AE6" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -4057,7 +4078,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -4147,10 +4168,10 @@
         <v>2.15</v>
       </c>
       <c r="AE7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -4164,7 +4185,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>120</v>
@@ -4254,10 +4275,10 @@
         <v>3.19</v>
       </c>
       <c r="AE8" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -4271,7 +4292,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>140</v>
@@ -4361,10 +4382,10 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="AE9" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -4378,7 +4399,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>160</v>
@@ -4468,10 +4489,10 @@
         <v>6.13</v>
       </c>
       <c r="AE10" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -4485,7 +4506,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>180</v>
@@ -4575,10 +4596,10 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="AE11" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG11">
         <v>1</v>
@@ -4592,7 +4613,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -4682,10 +4703,10 @@
         <v>10.48</v>
       </c>
       <c r="AE12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG12">
         <v>1</v>
@@ -4699,7 +4720,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>220</v>
@@ -4789,10 +4810,10 @@
         <v>13.66</v>
       </c>
       <c r="AE13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG13">
         <v>1</v>
@@ -4806,7 +4827,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>240</v>
@@ -4896,10 +4917,10 @@
         <v>17.37</v>
       </c>
       <c r="AE14" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG14">
         <v>1</v>
@@ -4913,7 +4934,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B15">
         <v>270</v>
@@ -5003,10 +5024,10 @@
         <v>22.78</v>
       </c>
       <c r="AE15" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG15">
         <v>1</v>
@@ -5020,7 +5041,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -5110,10 +5131,10 @@
         <v>29.43</v>
       </c>
       <c r="AE16" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG16">
         <v>1</v>
@@ -5127,7 +5148,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>330</v>
@@ -5217,10 +5238,10 @@
         <v>36.11</v>
       </c>
       <c r="AE17" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG17">
         <v>1</v>
@@ -5234,7 +5255,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>360</v>
@@ -5324,10 +5345,10 @@
         <v>44.91</v>
       </c>
       <c r="AE18" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG18">
         <v>1</v>
@@ -5341,7 +5362,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>400</v>
@@ -5431,10 +5452,10 @@
         <v>53.82</v>
       </c>
       <c r="AE19" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG19">
         <v>1</v>
@@ -5448,7 +5469,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B20">
         <v>450</v>
@@ -5538,10 +5559,10 @@
         <v>64.95</v>
       </c>
       <c r="AE20" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF20" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG20">
         <v>1</v>
@@ -5555,7 +5576,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>500</v>
@@ -5645,10 +5666,10 @@
         <v>78.930000000000007</v>
       </c>
       <c r="AE21" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF21" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG21">
         <v>1</v>
@@ -5662,7 +5683,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>550</v>
@@ -5752,10 +5773,10 @@
         <v>94.13</v>
       </c>
       <c r="AE22" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG22">
         <v>1</v>
@@ -5769,7 +5790,7 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>600</v>
@@ -5859,10 +5880,10 @@
         <v>114.13</v>
       </c>
       <c r="AE23" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AF23" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
